--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3625644.441791765</v>
+        <v>3624386.356117544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1406965.995172603</v>
+        <v>1406965.995172609</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.456488346069818e-10</v>
+        <v>2.441566948618856e-10</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8098933.692410773</v>
+        <v>8098933.692410771</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="G2" t="n">
-        <v>55.90922630247925</v>
+        <v>27.30485795806299</v>
       </c>
       <c r="H2" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27.30485795806638</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.90922630247925</v>
+        <v>48.49825520096249</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="D3" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="F3" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.49825520096584</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.64707424531071</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.64707424530301</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>227.4128599785995</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4168998826607816</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>184.9491536519083</v>
+        <v>56.53057837339762</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F11" t="n">
         <v>316.885015469746</v>
@@ -1385,10 +1385,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H11" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T11" t="n">
         <v>123.2081244353881</v>
@@ -1427,16 +1427,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V11" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W11" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X11" t="n">
-        <v>279.7400704065042</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S12" t="n">
         <v>149.2146408812902</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D13" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E13" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096577</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G13" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V13" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W13" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X13" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F14" t="n">
         <v>316.885015469746</v>
@@ -1622,10 +1622,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H14" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019347</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917446</v>
       </c>
       <c r="T14" t="n">
         <v>123.2081244353881</v>
@@ -1664,16 +1664,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V14" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X14" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S15" t="n">
         <v>149.2146408812902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D16" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G16" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574817</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866704</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633806</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U16" t="n">
         <v>196.2726833695757</v>
       </c>
       <c r="V16" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W16" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X16" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019366</v>
+        <v>33.32498986019341</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T17" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U17" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526528</v>
       </c>
       <c r="V17" t="n">
         <v>237.7612281981694</v>
@@ -1941,7 +1941,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S18" t="n">
         <v>149.2146408812902</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997181</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666252</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G19" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497089</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385666</v>
       </c>
       <c r="T19" t="n">
         <v>133.6214948185866</v>
@@ -2099,7 +2099,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917438</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997181</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D22" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E22" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G22" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385658</v>
@@ -2296,7 +2296,7 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W22" t="n">
         <v>196.5319680646255</v>
@@ -2324,7 +2324,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E23" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F23" t="n">
         <v>316.885015469746</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2378,10 +2378,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y23" t="n">
         <v>296.2469083840881</v>
@@ -2415,7 +2415,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I24" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S24" t="n">
         <v>149.2146408812902</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997184</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D25" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E25" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G25" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H25" t="n">
-        <v>63.219680698667</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T25" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185871</v>
       </c>
       <c r="U25" t="n">
         <v>196.2726833695757</v>
@@ -2561,7 +2561,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F26" t="n">
         <v>316.885015469746</v>
@@ -2570,10 +2570,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917448</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
@@ -2612,16 +2612,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W26" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X26" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I27" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S27" t="n">
         <v>149.2146408812902</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E28" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G28" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574817</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866705</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633794</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497094</v>
+        <v>41.703773414971</v>
       </c>
       <c r="S28" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385648</v>
       </c>
       <c r="T28" t="n">
         <v>133.6214948185867</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V28" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W28" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X28" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H29" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2849,7 +2849,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V29" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W29" t="n">
         <v>259.2499384454476</v>
@@ -2858,7 +2858,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D31" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096579</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574766</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633789</v>
+        <v>34.9620471463379</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497096</v>
       </c>
       <c r="S31" t="n">
         <v>116.3521968385659</v>
@@ -3007,16 +3007,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V31" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W31" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X31" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
@@ -3086,7 +3086,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W32" t="n">
         <v>259.2499384454476</v>
@@ -3095,7 +3095,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D34" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096579</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633788</v>
+        <v>34.9620471463379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497058</v>
       </c>
       <c r="S34" t="n">
         <v>116.3521968385659</v>
@@ -3244,16 +3244,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X34" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F35" t="n">
         <v>316.885015469746</v>
@@ -3281,10 +3281,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917441</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
@@ -3323,16 +3323,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W35" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X35" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460374</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096475</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574816</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633792</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385659</v>
@@ -3478,19 +3478,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V37" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X37" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>226.3302535795012</v>
       </c>
       <c r="I38" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T38" t="n">
         <v>123.2081244353881</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096582</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574816</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633792</v>
+        <v>34.9620471463379</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497096</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385659</v>
@@ -3755,10 +3755,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795016</v>
       </c>
       <c r="I41" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T41" t="n">
         <v>123.2081244353881</v>
@@ -3797,7 +3797,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7612281981698</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W41" t="n">
         <v>259.2499384454476</v>
@@ -3806,7 +3806,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C43" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D43" t="n">
-        <v>58.62444274624691</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E43" t="n">
-        <v>56.44293237460373</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F43" t="n">
-        <v>55.4300177509658</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G43" t="n">
         <v>76.98582764574813</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S43" t="n">
         <v>116.3521968385659</v>
@@ -3955,16 +3955,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V43" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W43" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646253</v>
       </c>
       <c r="X43" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I44" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T44" t="n">
         <v>123.2081244353881</v>
@@ -4034,16 +4034,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V44" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W44" t="n">
-        <v>259.249938445447</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X44" t="n">
         <v>279.7400704065036</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C46" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D46" t="n">
-        <v>58.62444274624691</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E46" t="n">
-        <v>56.44293237460373</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F46" t="n">
-        <v>55.4300177509658</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98582764574766</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H46" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I46" t="n">
-        <v>34.9620471463379</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.70377341497096</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S46" t="n">
         <v>116.3521968385659</v>
@@ -4192,16 +4192,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V46" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W46" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X46" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="C2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="D2" t="n">
-        <v>185.9646252375825</v>
+        <v>100.5973579174818</v>
       </c>
       <c r="E2" t="n">
-        <v>185.9646252375825</v>
+        <v>100.5973579174818</v>
       </c>
       <c r="F2" t="n">
-        <v>129.4906592754822</v>
+        <v>44.12339195538542</v>
       </c>
       <c r="G2" t="n">
-        <v>73.01669331338195</v>
+        <v>16.54272735128139</v>
       </c>
       <c r="H2" t="n">
-        <v>16.54272735128169</v>
+        <v>16.54272735128139</v>
       </c>
       <c r="I2" t="n">
-        <v>16.54272735128169</v>
+        <v>16.54272735128139</v>
       </c>
       <c r="J2" t="n">
-        <v>4.47273810419834</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="K2" t="n">
-        <v>57.58650309155362</v>
+        <v>59.8228721436487</v>
       </c>
       <c r="L2" t="n">
-        <v>57.58650309155362</v>
+        <v>59.8228721436487</v>
       </c>
       <c r="M2" t="n">
-        <v>112.9366371310081</v>
+        <v>59.8228721436487</v>
       </c>
       <c r="N2" t="n">
-        <v>168.2867711704625</v>
+        <v>112.9366371310003</v>
       </c>
       <c r="O2" t="n">
-        <v>223.636905209917</v>
+        <v>168.286771170451</v>
       </c>
       <c r="P2" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.5452898416899</v>
+        <v>213.5452898416746</v>
       </c>
       <c r="R2" t="n">
-        <v>213.5452898416899</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="S2" t="n">
-        <v>213.5452898416899</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="T2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="U2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="V2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="W2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="X2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.9646252375825</v>
+        <v>157.0713238795782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.1629392478168</v>
+        <v>174.6487686432729</v>
       </c>
       <c r="C3" t="n">
-        <v>167.1629392478168</v>
+        <v>118.1748026811765</v>
       </c>
       <c r="D3" t="n">
-        <v>110.6889732857165</v>
+        <v>61.70083671908014</v>
       </c>
       <c r="E3" t="n">
-        <v>110.6889732857165</v>
+        <v>5.226870756983748</v>
       </c>
       <c r="F3" t="n">
-        <v>54.21500732361623</v>
+        <v>5.226870756983748</v>
       </c>
       <c r="G3" t="n">
-        <v>5.226870756984054</v>
+        <v>5.226870756983748</v>
       </c>
       <c r="H3" t="n">
-        <v>5.226870756984054</v>
+        <v>5.226870756983748</v>
       </c>
       <c r="I3" t="n">
-        <v>5.226870756984054</v>
+        <v>5.226870756983748</v>
       </c>
       <c r="J3" t="n">
-        <v>4.47273810419834</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="K3" t="n">
-        <v>59.8228721436528</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="L3" t="n">
-        <v>59.8228721436528</v>
+        <v>59.8228721436487</v>
       </c>
       <c r="M3" t="n">
-        <v>59.8228721436528</v>
+        <v>115.1730061830994</v>
       </c>
       <c r="N3" t="n">
-        <v>112.9366371310081</v>
+        <v>168.286771170451</v>
       </c>
       <c r="O3" t="n">
-        <v>168.2867711704625</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="P3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="R3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="S3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="T3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="U3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="V3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="W3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="X3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.636905209917</v>
+        <v>223.6369052099017</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="C4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="D4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="E4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="F4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="G4" t="n">
-        <v>23.30816663480744</v>
+        <v>79.7821325969113</v>
       </c>
       <c r="H4" t="n">
-        <v>23.30816663480744</v>
+        <v>23.30816663481491</v>
       </c>
       <c r="I4" t="n">
-        <v>23.30816663480744</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="J4" t="n">
-        <v>23.30816663480744</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="K4" t="n">
-        <v>4.47273810419834</v>
+        <v>4.472738104198034</v>
       </c>
       <c r="L4" t="n">
-        <v>31.78686311191132</v>
+        <v>31.78686311191101</v>
       </c>
       <c r="M4" t="n">
-        <v>70.9749013041335</v>
+        <v>70.9749013041332</v>
       </c>
       <c r="N4" t="n">
-        <v>114.6657519595698</v>
+        <v>114.6657519595695</v>
       </c>
       <c r="O4" t="n">
-        <v>139.0050285944691</v>
+        <v>139.0050285944688</v>
       </c>
       <c r="P4" t="n">
-        <v>136.256098559008</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.7821325969077</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="R4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="S4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="T4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="U4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="V4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="W4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="X4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.30816663480744</v>
+        <v>136.2560985590077</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>492.4398793286558</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500.260318022696</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C6" t="n">
-        <v>325.807288741569</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>500.260318022696</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>500.260318022696</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>500.260318022696</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
         <v>53.75394372784808</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.4044113554191</v>
+        <v>738.740224174005</v>
       </c>
       <c r="C9" t="n">
-        <v>133.4044113554191</v>
+        <v>564.287194892878</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>549.0162103259058</v>
+        <v>906.955561194073</v>
       </c>
       <c r="X9" t="n">
-        <v>341.164710120373</v>
+        <v>906.955561194073</v>
       </c>
       <c r="Y9" t="n">
-        <v>133.4044113554191</v>
+        <v>906.955561194073</v>
       </c>
     </row>
     <row r="10">
@@ -4942,13 +4942,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5033,16 +5033,16 @@
         <v>333.3796118921542</v>
       </c>
       <c r="H11" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I11" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5051,13 +5051,13 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q11" t="n">
         <v>3555.07941078475</v>
@@ -5106,7 +5106,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F12" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G12" t="n">
         <v>220.9013999505779</v>
@@ -5118,25 +5118,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J12" t="n">
-        <v>71.10158821569499</v>
+        <v>111.6967448948682</v>
       </c>
       <c r="K12" t="n">
-        <v>128.0155738864514</v>
+        <v>430.4313152080775</v>
       </c>
       <c r="L12" t="n">
-        <v>617.9979342484362</v>
+        <v>920.4136755700623</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.763459456298</v>
+        <v>1544.179200777925</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.745215431622</v>
+        <v>2200.160956753248</v>
       </c>
       <c r="O12" t="n">
-        <v>2431.424687459554</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P12" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q12" t="n">
         <v>2662.220283762224</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634045</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132405</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D13" t="n">
-        <v>361.0414928786477</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739973</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538299</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2750506853974</v>
+        <v>170.2750506853965</v>
       </c>
       <c r="H13" t="n">
-        <v>106.4167873534106</v>
+        <v>106.4167873534097</v>
       </c>
       <c r="I13" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J13" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715123</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476442</v>
       </c>
       <c r="L13" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021224</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885121</v>
       </c>
       <c r="N13" t="n">
         <v>1160.182765121766</v>
@@ -5224,25 +5224,25 @@
         <v>1669.080268457737</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T13" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U13" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V13" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.024757201963</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816885</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883159013</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>1820.095900347438</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D14" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921537</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H14" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I14" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M14" t="n">
-        <v>1780.224142393354</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O14" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T14" t="n">
         <v>3362.43399598216</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V14" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X14" t="n">
         <v>2415.035011231886</v>
@@ -5343,7 +5343,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F15" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G15" t="n">
         <v>220.9013999505779</v>
@@ -5364,13 +5364,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M15" t="n">
-        <v>1154.938502604817</v>
+        <v>1313.526314340542</v>
       </c>
       <c r="N15" t="n">
         <v>1494.959119715748</v>
       </c>
       <c r="O15" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P15" t="n">
         <v>2439.960350382057</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D16" t="n">
-        <v>361.0414928786471</v>
+        <v>361.0414928786472</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739969</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F16" t="n">
         <v>248.0385129538295</v>
@@ -5428,58 +5428,58 @@
         <v>170.275050685397</v>
       </c>
       <c r="H16" t="n">
-        <v>106.4167873534102</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I16" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L16" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O16" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172266</v>
       </c>
       <c r="P16" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R16" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S16" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V16" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019628</v>
       </c>
       <c r="X16" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816883</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159007</v>
+        <v>589.042688315901</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352605</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233959</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921544</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350825</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397082</v>
       </c>
       <c r="K17" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723828</v>
       </c>
       <c r="L17" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N17" t="n">
         <v>2385.446588068709</v>
@@ -5546,16 +5546,16 @@
         <v>3362.433995982161</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y17" t="n">
         <v>2115.795709833817</v>
@@ -5580,7 +5580,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F18" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G18" t="n">
         <v>220.9013999505779</v>
@@ -5607,7 +5607,7 @@
         <v>1494.959119715748</v>
       </c>
       <c r="O18" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P18" t="n">
         <v>2439.960350382057</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132397</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786468</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G19" t="n">
         <v>170.2750506853968</v>
@@ -5674,13 +5674,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L19" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N19" t="n">
         <v>1160.182765121766</v>
@@ -5695,7 +5695,7 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R19" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S19" t="n">
         <v>1551.552796903629</v>
@@ -5710,13 +5710,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X19" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I20" t="n">
         <v>71.10158821569499</v>
@@ -5753,13 +5753,13 @@
         <v>249.2363626397092</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N20" t="n">
         <v>2385.446588068709</v>
@@ -5829,16 +5829,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J21" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K21" t="n">
-        <v>502.2386301474696</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L21" t="n">
-        <v>992.2209905094544</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M21" t="n">
-        <v>1154.938502604817</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N21" t="n">
         <v>1494.959119715748</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634037</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132397</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D22" t="n">
         <v>361.0414928786469</v>
@@ -5896,7 +5896,7 @@
         <v>304.0284298739967</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G22" t="n">
         <v>170.2750506853968</v>
@@ -5953,7 +5953,7 @@
         <v>718.9352368816876</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159005</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G23" t="n">
         <v>333.3796118921542</v>
@@ -5987,16 +5987,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K23" t="n">
-        <v>636.959017072384</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M23" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N23" t="n">
         <v>2385.446588068709</v>
@@ -6054,7 +6054,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F24" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G24" t="n">
         <v>220.9013999505779</v>
@@ -6075,13 +6075,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M24" t="n">
-        <v>1154.938502604817</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N24" t="n">
         <v>1494.959119715748</v>
       </c>
       <c r="O24" t="n">
-        <v>2028.63859174368</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P24" t="n">
         <v>2439.960350382057</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634042</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132402</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D25" t="n">
-        <v>361.0414928786474</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739971</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538297</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G25" t="n">
         <v>170.2750506853968</v>
       </c>
       <c r="H25" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L25" t="n">
         <v>588.106816402122</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6175,22 +6175,22 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T25" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U25" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V25" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019628</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816883</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.042688315901</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233953</v>
       </c>
       <c r="G26" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921538</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350818</v>
       </c>
       <c r="I26" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M26" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N26" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O26" t="n">
         <v>2911.753343601288</v>
@@ -6254,19 +6254,19 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T26" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U26" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V26" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y26" t="n">
         <v>2115.795709833817</v>
@@ -6312,13 +6312,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N27" t="n">
-        <v>1494.959119715748</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O27" t="n">
-        <v>2028.63859174368</v>
+        <v>2331.098793120455</v>
       </c>
       <c r="P27" t="n">
         <v>2439.960350382057</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634043</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D28" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786473</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739968</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853968</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H28" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I28" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K28" t="n">
         <v>322.4370930476437</v>
@@ -6391,13 +6391,13 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N28" t="n">
         <v>1160.182765121765</v>
       </c>
       <c r="O28" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P28" t="n">
         <v>1623.344941642819</v>
@@ -6406,28 +6406,28 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S28" t="n">
         <v>1551.55279690363</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159012</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D29" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233962</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921547</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350828</v>
       </c>
       <c r="I29" t="n">
         <v>71.10158821569499</v>
@@ -6464,13 +6464,13 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
         <v>2385.446588068709</v>
@@ -6482,28 +6482,28 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R29" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S29" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T29" t="n">
         <v>3362.433995982161</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y29" t="n">
         <v>2115.795709833817</v>
@@ -6543,19 +6543,19 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K30" t="n">
-        <v>502.2386301474696</v>
+        <v>501.5556322366153</v>
       </c>
       <c r="L30" t="n">
-        <v>992.2209905094544</v>
+        <v>991.5379925986001</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.526314340543</v>
+        <v>1154.255504693962</v>
       </c>
       <c r="N30" t="n">
-        <v>1494.959119715748</v>
+        <v>1810.237260669286</v>
       </c>
       <c r="O30" t="n">
-        <v>2028.63859174368</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P30" t="n">
         <v>2439.960350382057</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D31" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739964</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538289</v>
       </c>
       <c r="G31" t="n">
         <v>170.2750506853969</v>
@@ -6619,16 +6619,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N31" t="n">
         <v>1160.182765121766</v>
@@ -6643,10 +6643,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T31" t="n">
         <v>1416.581590016168</v>
@@ -6658,13 +6658,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X31" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.033413984768</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352595</v>
+        <v>979.7795239352606</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233947</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921532</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H32" t="n">
         <v>104.7631941350823</v>
@@ -6725,25 +6725,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926996</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U32" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V32" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y32" t="n">
-        <v>2115.795709833816</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J33" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L33" t="n">
-        <v>879.8185188908891</v>
+        <v>625.0890486590298</v>
       </c>
       <c r="M33" t="n">
-        <v>1042.536030986251</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N33" t="n">
-        <v>1494.959119715748</v>
+        <v>1904.836329842215</v>
       </c>
       <c r="O33" t="n">
-        <v>2028.63859174368</v>
+        <v>2048.592105786186</v>
       </c>
       <c r="P33" t="n">
         <v>2439.960350382057</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634039</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132399</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D34" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F34" t="n">
         <v>248.0385129538294</v>
@@ -6856,7 +6856,7 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715117</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K34" t="n">
         <v>322.4370930476437</v>
@@ -6865,7 +6865,7 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N34" t="n">
         <v>1160.182765121766</v>
@@ -6895,13 +6895,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X34" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C35" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D35" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352606</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233961</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G35" t="n">
         <v>333.3796118921546</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I35" t="n">
         <v>71.10158821569499</v>
@@ -6956,31 +6956,31 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S35" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T35" t="n">
         <v>3362.433995982161</v>
       </c>
       <c r="U35" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V35" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X35" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y35" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J36" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K36" t="n">
-        <v>502.2386301474696</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L36" t="n">
-        <v>992.2209905094544</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.526314340543</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N36" t="n">
-        <v>1494.959119715748</v>
+        <v>2159.565800074075</v>
       </c>
       <c r="O36" t="n">
-        <v>2028.63859174368</v>
+        <v>2303.321576018045</v>
       </c>
       <c r="P36" t="n">
         <v>2439.960350382057</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C37" t="n">
-        <v>420.258101713239</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786461</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739959</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G37" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H37" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I37" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021224</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q37" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R37" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S37" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T37" t="n">
         <v>1416.581590016168</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V37" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019616</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816872</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883158999</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G38" t="n">
-        <v>333.379611892154</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H38" t="n">
         <v>104.7631941350824</v>
@@ -7172,22 +7172,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K38" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M38" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N38" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O38" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P38" t="n">
         <v>3323.269600003673</v>
@@ -7254,22 +7254,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K39" t="n">
-        <v>502.2386301474696</v>
+        <v>240.4180455050167</v>
       </c>
       <c r="L39" t="n">
-        <v>992.2209905094544</v>
+        <v>363.268464016577</v>
       </c>
       <c r="M39" t="n">
-        <v>1615.986515717317</v>
+        <v>987.0339892244392</v>
       </c>
       <c r="N39" t="n">
-        <v>1797.419321092522</v>
+        <v>1643.015745199762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.098793120455</v>
+        <v>2176.695217227695</v>
       </c>
       <c r="P39" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q39" t="n">
         <v>2662.220283762224</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634041</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132401</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786472</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E40" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G40" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H40" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I40" t="n">
         <v>71.10158821569499</v>
@@ -7369,13 +7369,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019626</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816882</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C41" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D41" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E41" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F41" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233962</v>
       </c>
       <c r="G41" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921547</v>
       </c>
       <c r="H41" t="n">
         <v>104.7631941350823</v>
@@ -7409,10 +7409,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L41" t="n">
         <v>1170.239882220686</v>
@@ -7491,16 +7491,16 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K42" t="n">
-        <v>407.63956097454</v>
+        <v>430.4313152080775</v>
       </c>
       <c r="L42" t="n">
-        <v>530.4899794861002</v>
+        <v>920.4136755700623</v>
       </c>
       <c r="M42" t="n">
-        <v>1154.255504693962</v>
+        <v>1544.179200777925</v>
       </c>
       <c r="N42" t="n">
-        <v>1810.237260669286</v>
+        <v>2200.160956753248</v>
       </c>
       <c r="O42" t="n">
         <v>2343.916732697218</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.294254063404</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C43" t="n">
-        <v>420.25810171324</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D43" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E43" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F43" t="n">
         <v>248.0385129538294</v>
@@ -7567,16 +7567,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K43" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L43" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N43" t="n">
         <v>1160.182765121766</v>
@@ -7606,13 +7606,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>856.0247572019625</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X43" t="n">
-        <v>718.9352368816881</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.0426883159008</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="44">
@@ -7646,16 +7646,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K44" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L44" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M44" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N44" t="n">
         <v>2385.446588068709</v>
@@ -7667,19 +7667,19 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q44" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R44" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S44" t="n">
         <v>3486.886646926997</v>
       </c>
       <c r="T44" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U44" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V44" t="n">
         <v>2959.469363607594</v>
@@ -7725,22 +7725,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J45" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K45" t="n">
-        <v>407.63956097454</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L45" t="n">
-        <v>530.4899794861002</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M45" t="n">
-        <v>1154.255504693962</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N45" t="n">
-        <v>1810.237260669286</v>
+        <v>1685.016849473957</v>
       </c>
       <c r="O45" t="n">
-        <v>2343.916732697218</v>
+        <v>2218.696321501889</v>
       </c>
       <c r="P45" t="n">
         <v>2439.960350382057</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C46" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D46" t="n">
-        <v>361.0414928786466</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E46" t="n">
-        <v>304.0284298739964</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F46" t="n">
-        <v>248.0385129538289</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G46" t="n">
         <v>170.2750506853969</v>
@@ -7804,16 +7804,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K46" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L46" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M46" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885116</v>
       </c>
       <c r="N46" t="n">
         <v>1160.182765121766</v>
@@ -7828,10 +7828,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R46" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S46" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T46" t="n">
         <v>1416.581590016168</v>
@@ -7843,13 +7843,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X46" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y46" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.7401187089758</v>
+        <v>275.999077347456</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>286.255459529752</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>285.3222898990701</v>
+        <v>283.0633312605825</v>
       </c>
       <c r="O2" t="n">
-        <v>286.007437724166</v>
+        <v>286.0074377241622</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>287.142222057745</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.7506652768382</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>194.4636060823496</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>198.0432602244937</v>
       </c>
       <c r="N3" t="n">
-        <v>184.9919797473285</v>
+        <v>184.9919797473248</v>
       </c>
       <c r="O3" t="n">
-        <v>198.5054707469237</v>
+        <v>198.5054707469199</v>
       </c>
       <c r="P3" t="n">
-        <v>189.8836337168095</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.55318522064593</v>
+        <v>53.55839398748749</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6854142385405</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504514</v>
+        <v>417.6612145504494</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>160.1897088239652</v>
       </c>
       <c r="N15" t="n">
-        <v>160.1897088239658</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>160.1897088239658</v>
+        <v>160.1897088239652</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714829</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>273.7275589437288</v>
       </c>
       <c r="N21" t="n">
-        <v>160.1897088239658</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714829</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="N24" t="n">
-        <v>160.1897088239652</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>160.1897088239655</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>12.94741371390273</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>263.7753401329279</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>160.1897088239655</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>273.7275589437286</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>298.307703950538</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>12.5531852206459</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>160.1897088239655</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>41.00520876684146</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0247014497518</v>
+        <v>168.9106216863869</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9106216863871</v>
+        <v>191.9325956596574</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>12.5531852206459</v>
       </c>
       <c r="K45" t="n">
-        <v>168.9106216863871</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>126.4852638336657</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.836930773104541e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685364.2335258154</v>
+        <v>685364.2335258151</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>701527.8701374623</v>
+        <v>701527.8701374622</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>701527.8701374623</v>
+        <v>701527.8701374622</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176748</v>
+        <v>800515.725617675</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176748</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="H2" t="n">
+        <v>800515.7256176751</v>
+      </c>
+      <c r="I2" t="n">
         <v>800515.725617675</v>
       </c>
-      <c r="I2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="J2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176752</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="N2" t="n">
         <v>800515.7256176751</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176766</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18736.46764616575</v>
+        <v>18736.46764616447</v>
       </c>
       <c r="C3" t="n">
-        <v>59802.01954823627</v>
+        <v>59802.01954823751</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717213.3002186427</v>
+        <v>717213.3002186428</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86621.13782425824</v>
+        <v>86621.13782425717</v>
       </c>
       <c r="K3" t="n">
-        <v>47640.11974484887</v>
+        <v>47640.11974485001</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>161423.2775258325</v>
+        <v>161423.2775258326</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71992.82421757239</v>
+        <v>71992.8242175723</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378069.4770490775</v>
+        <v>378069.4770490782</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26424,10 +26424,10 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="F4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="G4" t="n">
         <v>157137.7302795614</v>
@@ -26436,10 +26436,10 @@
         <v>157137.7302795614</v>
       </c>
       <c r="I4" t="n">
+        <v>157137.7302795614</v>
+      </c>
+      <c r="J4" t="n">
         <v>157137.7302795613</v>
-      </c>
-      <c r="J4" t="n">
-        <v>157137.7302795614</v>
       </c>
       <c r="K4" t="n">
         <v>157137.7302795614</v>
@@ -26451,13 +26451,13 @@
         <v>157137.7302795613</v>
       </c>
       <c r="N4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="O4" t="n">
         <v>157137.7302795613</v>
       </c>
       <c r="P4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37026.88095919073</v>
+        <v>37026.8809591905</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26491,7 +26491,7 @@
         <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="K5" t="n">
         <v>73862.46925788873</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366682.8999632417</v>
+        <v>366682.8999632435</v>
       </c>
       <c r="C6" t="n">
-        <v>346366.7486004076</v>
+        <v>346366.7486004064</v>
       </c>
       <c r="D6" t="n">
-        <v>406168.7681486438</v>
+        <v>406168.768148644</v>
       </c>
       <c r="E6" t="n">
-        <v>-147697.7741384163</v>
+        <v>-147697.7741384167</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.5260802247</v>
+        <v>569515.526080225</v>
       </c>
       <c r="G6" t="n">
         <v>569515.5260802247</v>
       </c>
       <c r="H6" t="n">
+        <v>569515.5260802251</v>
+      </c>
+      <c r="I6" t="n">
         <v>569515.5260802249</v>
       </c>
-      <c r="I6" t="n">
-        <v>569515.5260802266</v>
-      </c>
       <c r="J6" t="n">
-        <v>482894.3882559683</v>
+        <v>482894.3882559676</v>
       </c>
       <c r="K6" t="n">
-        <v>521875.4063353777</v>
+        <v>521875.4063353752</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.5260802263</v>
+        <v>569515.5260802249</v>
       </c>
       <c r="M6" t="n">
-        <v>408092.2485543924</v>
+        <v>408092.2485543933</v>
       </c>
       <c r="N6" t="n">
         <v>569515.526080225</v>
       </c>
       <c r="O6" t="n">
-        <v>497522.7018626544</v>
+        <v>497522.7018626527</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.526080225</v>
+        <v>569515.5260802265</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>89.99103027196544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.99103027196541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89.99103027196541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.99103027196544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.99103027196544</v>
+      </c>
+      <c r="M2" t="n">
         <v>89.99103027196547</v>
       </c>
-      <c r="F2" t="n">
-        <v>89.99103027196549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>89.99103027196549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89.99103027196549</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>89.99103027196544</v>
+      </c>
+      <c r="O2" t="n">
         <v>89.99103027196546</v>
       </c>
-      <c r="J2" t="n">
-        <v>89.99103027196547</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>89.99103027196546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>89.99103027196544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="G3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="H3" t="n">
         <v>562.3764353223248</v>
       </c>
       <c r="I3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="J3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="K3" t="n">
         <v>562.3764353223249</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26799,7 +26799,7 @@
         <v>888.7698526961874</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="G4" t="n">
         <v>888.7698526961873</v>
@@ -26814,13 +26814,13 @@
         <v>888.7698526961873</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="L4" t="n">
         <v>888.7698526961874</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="N4" t="n">
         <v>888.7698526961874</v>
@@ -26829,7 +26829,7 @@
         <v>888.7698526961874</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196536</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196537</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="C4" t="n">
-        <v>185.1050625751798</v>
+        <v>185.1050625751836</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.90922630247917</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="K4" t="n">
-        <v>185.1050625751798</v>
+        <v>185.1050625751842</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196536</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="K4" t="n">
-        <v>185.1050625751798</v>
+        <v>185.1050625751836</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>298.7738153182075</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>350.9668194392322</v>
+        <v>350.966819439236</v>
       </c>
       <c r="G2" t="n">
-        <v>359.3935112126558</v>
+        <v>387.9978795570721</v>
       </c>
       <c r="H2" t="n">
-        <v>283.5655758132879</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>93.95989163867426</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>195.790991606065</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.6239573473881</v>
+        <v>118.0349284489049</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>116.7992726858403</v>
       </c>
       <c r="D3" t="n">
-        <v>91.5358392621595</v>
+        <v>91.53583926216334</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>101.7358541529255</v>
       </c>
       <c r="F3" t="n">
-        <v>89.15998609090462</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>88.84526196224479</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>112.0817530559833</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>106.3179462049642</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>136.8034006819476</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>3.622417580579846</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.25281694921513</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>121.3841650746902</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,28 +27616,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>112.0619421371676</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>91.57414009104113</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.2780832782588</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>364.436345787192</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>213.7637562548236</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>66.74582950901132</v>
+        <v>195.164404787522</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196645</v>
       </c>
       <c r="P16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196499</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196549</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196622</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196588</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
   </sheetData>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I11" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J11" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L11" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R11" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U11" t="n">
         <v>0.18086478321924</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H12" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J12" t="n">
         <v>114.2844414460208</v>
@@ -31847,31 +31847,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M12" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S12" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L13" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M13" t="n">
         <v>158.9681454797188</v>
@@ -31938,19 +31938,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R13" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S13" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I14" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L14" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R14" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U14" t="n">
         <v>0.18086478321924</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H15" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J15" t="n">
         <v>114.2844414460208</v>
@@ -32084,31 +32084,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S15" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K16" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M16" t="n">
         <v>158.9681454797188</v>
@@ -32175,19 +32175,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I17" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J17" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L17" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N17" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O17" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R17" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T17" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U17" t="n">
         <v>0.18086478321924</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H18" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I18" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J18" t="n">
         <v>114.2844414460208</v>
@@ -32321,31 +32321,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M18" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N18" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R18" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S18" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K19" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L19" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M19" t="n">
         <v>158.9681454797188</v>
@@ -32412,19 +32412,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R19" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S19" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H23" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I23" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J23" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344248</v>
       </c>
       <c r="K23" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L23" t="n">
-        <v>356.7727409733782</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M23" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N23" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O23" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P23" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q23" t="n">
-        <v>244.1420232358341</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R23" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S23" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T23" t="n">
-        <v>9.896694856777799</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U23" t="n">
         <v>0.18086478321924</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H24" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I24" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J24" t="n">
         <v>114.2844414460208</v>
@@ -32795,31 +32795,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M24" t="n">
-        <v>306.4951572506671</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N24" t="n">
-        <v>314.6071720582883</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P24" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R24" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S24" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T24" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,19 +32859,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H25" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I25" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69838586068396</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K25" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L25" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813328</v>
       </c>
       <c r="M25" t="n">
         <v>158.9681454797188</v>
@@ -32886,19 +32886,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R25" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S25" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644092</v>
       </c>
       <c r="T25" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H26" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I26" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J26" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K26" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L26" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M26" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N26" t="n">
         <v>403.4019428970884</v>
@@ -32962,19 +32962,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P26" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q26" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R26" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S26" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T26" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U26" t="n">
         <v>0.18086478321924</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H27" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I27" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J27" t="n">
         <v>114.2844414460208</v>
@@ -33035,28 +33035,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N27" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O27" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P27" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R27" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S27" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T27" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H28" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I28" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J28" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K28" t="n">
         <v>117.8224728429395</v>
@@ -33123,19 +33123,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R28" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S28" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T28" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.65026766399524</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>55.90922630247925</v>
+        <v>53.65026766399155</v>
       </c>
       <c r="O2" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="N3" t="n">
-        <v>53.65026766399524</v>
+        <v>53.65026766399154</v>
       </c>
       <c r="O3" t="n">
-        <v>55.90922630247925</v>
+        <v>55.90922630247542</v>
       </c>
       <c r="P3" t="n">
-        <v>55.90922630247925</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O11" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P11" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.0052087668416</v>
       </c>
       <c r="K12" t="n">
-        <v>57.4888744149055</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L12" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M12" t="n">
-        <v>630.0661870786486</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N12" t="n">
-        <v>662.6078343185084</v>
+        <v>662.6078343185085</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655884</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P12" t="n">
-        <v>218.6991694757516</v>
+        <v>97.01375523721117</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42769547644022</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N13" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O13" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L14" t="n">
-        <v>538.6675405538422</v>
+        <v>538.6675405538404</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O14" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P14" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K15" t="n">
         <v>321.9541114274841</v>
@@ -35732,19 +35732,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>164.3611233286487</v>
+        <v>324.550832152614</v>
       </c>
       <c r="N15" t="n">
-        <v>343.4551687989206</v>
+        <v>183.265459974955</v>
       </c>
       <c r="O15" t="n">
-        <v>539.0701737655884</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P15" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5049832122893</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597664</v>
+        <v>68.3302360159766</v>
       </c>
       <c r="K16" t="n">
         <v>185.5440112890221</v>
@@ -35814,16 +35814,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N16" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924244</v>
       </c>
       <c r="P16" t="n">
         <v>209.9229681520754</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798113</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L17" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M17" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O17" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P17" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K18" t="n">
         <v>321.9541114274841</v>
@@ -35969,19 +35969,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M18" t="n">
-        <v>164.3611233286487</v>
+        <v>164.3611233286488</v>
       </c>
       <c r="N18" t="n">
-        <v>343.4551687989206</v>
+        <v>343.4551687989202</v>
       </c>
       <c r="O18" t="n">
-        <v>539.0701737655884</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P18" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.5049832122893</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K19" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M19" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N19" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O19" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394214</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>531.622985386443</v>
       </c>
       <c r="P20" t="n">
-        <v>415.6729862650353</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q20" t="n">
         <v>234.1513240212892</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>321.9541114274841</v>
@@ -36206,10 +36206,10 @@
         <v>494.931677133318</v>
       </c>
       <c r="M21" t="n">
-        <v>164.3611233286487</v>
+        <v>438.0886822723774</v>
       </c>
       <c r="N21" t="n">
-        <v>343.4551687989206</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O21" t="n">
         <v>539.0701737655884</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36294,10 +36294,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P22" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394165</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K23" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L23" t="n">
-        <v>538.6675405538414</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M23" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N23" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O23" t="n">
-        <v>531.6229853864431</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P23" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650353</v>
       </c>
       <c r="Q23" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.537850119763</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K24" t="n">
         <v>321.9541114274841</v>
@@ -36443,19 +36443,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>164.3611233286488</v>
+        <v>324.5508321526145</v>
       </c>
       <c r="N24" t="n">
-        <v>343.4551687989202</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O24" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771483</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.5049832122894</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L25" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M25" t="n">
         <v>288.5430527135248</v>
@@ -36595,7 +36595,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K26" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L26" t="n">
         <v>538.6675405538413</v>
@@ -36604,13 +36604,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N26" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O26" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P26" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q26" t="n">
         <v>234.1513240212892</v>
@@ -36680,16 +36680,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>324.5508321526142</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N27" t="n">
-        <v>183.2654599749549</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O27" t="n">
-        <v>539.0701737655885</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P27" t="n">
-        <v>415.4765238771483</v>
+        <v>109.9611689511138</v>
       </c>
       <c r="Q27" t="n">
         <v>224.5049832122893</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597657</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
@@ -36762,16 +36762,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O28" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394207</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K30" t="n">
-        <v>321.9541114274841</v>
+        <v>321.2642145478334</v>
       </c>
       <c r="L30" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
-        <v>324.5508321526142</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N30" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O30" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P30" t="n">
-        <v>415.4765238771483</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q30" t="n">
         <v>224.5049832122893</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890223</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L31" t="n">
         <v>268.3532559136144</v>
@@ -37008,7 +37008,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L33" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M33" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N33" t="n">
-        <v>456.9930189186834</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P33" t="n">
-        <v>415.4765238771483</v>
+        <v>395.3214591877491</v>
       </c>
       <c r="Q33" t="n">
         <v>224.5049832122893</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
@@ -37245,7 +37245,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124818</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O35" t="n">
         <v>531.622985386443</v>
@@ -37324,7 +37324,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.1513240212892</v>
+        <v>234.151324021289</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>321.9541114274841</v>
@@ -37391,16 +37391,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>324.5508321526142</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N36" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P36" t="n">
-        <v>415.4765238771483</v>
+        <v>138.0189640040526</v>
       </c>
       <c r="Q36" t="n">
         <v>224.5049832122893</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37473,16 +37473,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O37" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P37" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K38" t="n">
         <v>391.6390448814895</v>
@@ -37622,25 +37622,25 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K39" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L39" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M39" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N39" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P39" t="n">
-        <v>320.0384566869629</v>
+        <v>265.924376923598</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37710,7 +37710,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
-        <v>289.3114409426817</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O40" t="n">
         <v>257.9176141924233</v>
@@ -37719,7 +37719,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394256</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K41" t="n">
         <v>391.6390448814895</v>
@@ -37859,10 +37859,10 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>226.3994961012927</v>
+        <v>249.4214700745629</v>
       </c>
       <c r="L42" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M42" t="n">
         <v>630.0661870786487</v>
@@ -37871,7 +37871,7 @@
         <v>662.6078343185084</v>
       </c>
       <c r="O42" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P42" t="n">
         <v>97.01375523721114</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K43" t="n">
         <v>185.5440112890221</v>
@@ -37947,7 +37947,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O43" t="n">
         <v>257.9176141924233</v>
@@ -37956,7 +37956,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>531.622985386443</v>
       </c>
       <c r="P44" t="n">
-        <v>415.6729862650351</v>
+        <v>415.6729862650353</v>
       </c>
       <c r="Q44" t="n">
         <v>234.1513240212892</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>226.3994961012927</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M45" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O45" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P45" t="n">
-        <v>97.01375523721114</v>
+        <v>223.4990190708769</v>
       </c>
       <c r="Q45" t="n">
         <v>224.5049832122893</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K46" t="n">
         <v>185.5440112890221</v>
@@ -38193,7 +38193,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
